--- a/biology/Zoologie/Daguet_rouge/Daguet_rouge.xlsx
+++ b/biology/Zoologie/Daguet_rouge/Daguet_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mazama americana
-Le daguet rouge (Mazama americana) est une espèce de daguet, appelée "biche rouge" en Guyane française. Il provient des forêts d'Amérique du Sud, du Nord de l'Argentine au Venezuela [1], ainsi que de Trinidad à Trinidad et Tobago. Le daguet brun du Yucatán (en) (Mazama pandora) et le daguet d'Amérique Centrale (en) (Mazama temama) étaient considérés comme sous-espèces du daguet rouge dans plusieurs travaux datant du XXe siècle ; ce n'est plus le cas depuis 1998 [2].
+Le daguet rouge (Mazama americana) est une espèce de daguet, appelée "biche rouge" en Guyane française. Il provient des forêts d'Amérique du Sud, du Nord de l'Argentine au Venezuela , ainsi que de Trinidad à Trinidad et Tobago. Le daguet brun du Yucatán (en) (Mazama pandora) et le daguet d'Amérique Centrale (en) (Mazama temama) étaient considérés comme sous-espèces du daguet rouge dans plusieurs travaux datant du XXe siècle ; ce n'est plus le cas depuis 1998 .
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure environ 70 cm au garrot et peut peser entre 40 et 60 kg.
 Seuls les mâles ont des bois, courts.
@@ -544,7 +558,9 @@
           <t>Mode de vie et alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un animal solitaire, actif de jour comme de nuit.
 Il se nourrit de graines, de fruits, de fleurs, de champignons et de feuilles; c'est un animal herbivore.
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La biche peut se reproduire à l'âge de un ou deux ans. Elle met au monde un (parfois deux) petit, après 7 mois de gestation. À la naissance, le faon pèse environ 2 kg.
 </t>
